--- a/Bus_Reservation Final.xlsx
+++ b/Bus_Reservation Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b911836209075e32/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{7ECCB09B-1126-4929-911E-13A765D0019D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A293C78D-62B3-4B19-BED7-B98C7DB67FB3}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{7ECCB09B-1126-4929-911E-13A765D0019D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD87ACCC-1EF8-4DDE-B45E-2FEED61F8D40}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{4A4068E0-234D-40F0-9553-2FCD3B29295B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="93">
   <si>
     <t xml:space="preserve">User Type </t>
   </si>
@@ -95,9 +95,6 @@
     <t>departure_time</t>
   </si>
   <si>
-    <t>travelling_date_span(time)</t>
-  </si>
-  <si>
     <t>Booked Seats/No. Of Passengers</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>Foreign Key</t>
   </si>
   <si>
-    <t>Driver Id</t>
-  </si>
-  <si>
     <t>Route</t>
   </si>
   <si>
@@ -122,21 +116,9 @@
     <t>Destination Station</t>
   </si>
   <si>
-    <t>Type Of Ticket</t>
-  </si>
-  <si>
-    <t>Return Date(only for return ticket)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date </t>
-  </si>
-  <si>
     <t>Bus Id</t>
   </si>
   <si>
-    <t>Return Id</t>
-  </si>
-  <si>
     <t>Customer Id</t>
   </si>
   <si>
@@ -218,9 +200,6 @@
     <t>Date Of Booking</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Amount </t>
-  </si>
-  <si>
     <t>Ticket Cancellation</t>
   </si>
   <si>
@@ -236,21 +215,9 @@
     <t>Return Date</t>
   </si>
   <si>
-    <t>Return</t>
-  </si>
-  <si>
     <t>Driver Name</t>
   </si>
   <si>
-    <t>Driver Contact</t>
-  </si>
-  <si>
-    <t>Foreign key</t>
-  </si>
-  <si>
-    <t>Driver</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -278,9 +245,6 @@
     <t>view Customer Table</t>
   </si>
   <si>
-    <t>5)To Register/signup</t>
-  </si>
-  <si>
     <t>6)To Cancel Ticket</t>
   </si>
   <si>
@@ -290,9 +254,6 @@
     <t>update Ticket Booking Table</t>
   </si>
   <si>
-    <t>We will update Customer Table</t>
-  </si>
-  <si>
     <t>7)To View Bookings</t>
   </si>
   <si>
@@ -302,7 +263,55 @@
     <t>8)</t>
   </si>
   <si>
-    <t>User</t>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Type of Ticket</t>
+  </si>
+  <si>
+    <t>Ticket Id</t>
+  </si>
+  <si>
+    <t>Ticket Id(1/2)</t>
+  </si>
+  <si>
+    <t>Ticket Type (One way/Two way)</t>
+  </si>
+  <si>
+    <t>DateTIme</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>Schedule Id</t>
+  </si>
+  <si>
+    <t>Departure Date</t>
+  </si>
+  <si>
+    <t>Scheduled Date</t>
+  </si>
+  <si>
+    <t>Arrival Date</t>
+  </si>
+  <si>
+    <t>Bus Type</t>
+  </si>
+  <si>
+    <t>Bus Type Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bus Type </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bus Schedule</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
 </sst>
 </file>
@@ -676,19 +685,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8208C189-B81F-4578-93F6-2366F638F024}">
-  <dimension ref="A3:M88"/>
+  <dimension ref="A3:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34.08984375" bestFit="1" customWidth="1"/>
   </cols>
@@ -697,6 +708,9 @@
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="H3" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -711,6 +725,18 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -725,6 +751,12 @@
       <c r="D5" t="s">
         <v>8</v>
       </c>
+      <c r="F5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -736,10 +768,27 @@
       <c r="D6" t="s">
         <v>10</v>
       </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>88</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -755,335 +804,254 @@
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="H9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>74</v>
+      <c r="F9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" t="s">
-        <v>73</v>
+      <c r="A10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="F10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" t="s">
-        <v>80</v>
+      <c r="A11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" t="s">
-        <v>78</v>
-      </c>
-      <c r="I13" t="s">
-        <v>79</v>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" t="s">
-        <v>85</v>
-      </c>
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
-      </c>
-      <c r="H15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" t="s">
-        <v>86</v>
-      </c>
-      <c r="I16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
         <v>7</v>
       </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B32" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
         <v>7</v>
       </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>29</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B31" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>36</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
@@ -1092,9 +1060,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
@@ -1103,224 +1071,224 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>38</v>
       </c>
-      <c r="C37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>40</v>
       </c>
-      <c r="C38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>41</v>
       </c>
-      <c r="C39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B46" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>43</v>
       </c>
-      <c r="C40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
         <v>7</v>
       </c>
-      <c r="D43" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" t="s">
-        <v>9</v>
-      </c>
       <c r="D48" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C49" t="s">
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C50" t="s">
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C51" t="s">
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C52" t="s">
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" t="s">
         <v>7</v>
       </c>
-      <c r="D53" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B55" s="3" t="s">
-        <v>57</v>
+      <c r="D54" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
+      <c r="B56" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>47</v>
-      </c>
-      <c r="B57" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>41</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>9</v>
@@ -1331,57 +1299,57 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>5</v>
       </c>
-      <c r="B59" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" t="s">
         <v>7</v>
       </c>
-      <c r="D59" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B61" s="3" t="s">
-        <v>59</v>
+      <c r="D60" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
+      <c r="B62" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>56</v>
-      </c>
-      <c r="B63" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>22</v>
+        <v>50</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D64" t="s">
         <v>8</v>
@@ -1389,43 +1357,43 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C65" t="s">
         <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C67" t="s">
         <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
@@ -1434,121 +1402,141 @@
         <v>8</v>
       </c>
     </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B70" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
+      <c r="A70" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B72" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>63</v>
-      </c>
-      <c r="B72" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>56</v>
-      </c>
-      <c r="B73" t="s">
-        <v>24</v>
-      </c>
-      <c r="C73" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>64</v>
+        <v>56</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>65</v>
+        <v>50</v>
+      </c>
+      <c r="B75" t="s">
+        <v>23</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>33</v>
-      </c>
-      <c r="B76" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>58</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" t="s">
         <v>7</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D78" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A78" s="2"/>
-      <c r="B78" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-    </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>4</v>
+      <c r="A79" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
@@ -1557,84 +1545,123 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="2"/>
+      <c r="B82" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>64</v>
+      </c>
+      <c r="B98" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>65</v>
+      </c>
+      <c r="B99" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>66</v>
       </c>
-      <c r="C81" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B83" s="3" t="s">
+      <c r="B100" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>67</v>
+      </c>
+      <c r="B101" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>70</v>
+      </c>
+      <c r="B102" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>25</v>
-      </c>
-      <c r="B85" t="s">
-        <v>6</v>
-      </c>
-      <c r="C85" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>68</v>
-      </c>
-      <c r="C86" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>69</v>
-      </c>
-      <c r="C87" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>23</v>
-      </c>
-      <c r="B88" t="s">
-        <v>70</v>
-      </c>
-      <c r="C88" t="s">
-        <v>7</v>
-      </c>
-      <c r="D88" t="s">
-        <v>8</v>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>73</v>
+      </c>
+      <c r="B103" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Bus_Reservation Final.xlsx
+++ b/Bus_Reservation Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b911836209075e32/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{7ECCB09B-1126-4929-911E-13A765D0019D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD87ACCC-1EF8-4DDE-B45E-2FEED61F8D40}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{7ECCB09B-1126-4929-911E-13A765D0019D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3174B23B-1B18-4DF2-9008-E7116D76B044}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{4A4068E0-234D-40F0-9553-2FCD3B29295B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="99">
   <si>
     <t xml:space="preserve">User Type </t>
   </si>
@@ -272,12 +272,6 @@
     <t>Type of Ticket</t>
   </si>
   <si>
-    <t>Ticket Id</t>
-  </si>
-  <si>
-    <t>Ticket Id(1/2)</t>
-  </si>
-  <si>
     <t>Ticket Type (One way/Two way)</t>
   </si>
   <si>
@@ -293,9 +287,6 @@
     <t>Departure Date</t>
   </si>
   <si>
-    <t>Scheduled Date</t>
-  </si>
-  <si>
     <t>Arrival Date</t>
   </si>
   <si>
@@ -312,6 +303,33 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>Bus Fare</t>
+  </si>
+  <si>
+    <t>Fare Id</t>
+  </si>
+  <si>
+    <t>Fare Amount</t>
+  </si>
+  <si>
+    <t>Fk</t>
+  </si>
+  <si>
+    <t>Registration Number</t>
+  </si>
+  <si>
+    <t>Ticket Type Id(1/2)</t>
+  </si>
+  <si>
+    <t>Ticket Type Id</t>
+  </si>
+  <si>
+    <t>onward journey date</t>
+  </si>
+  <si>
+    <t>Total Seats</t>
   </si>
 </sst>
 </file>
@@ -685,32 +703,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8208C189-B81F-4578-93F6-2366F638F024}">
-  <dimension ref="A3:M104"/>
+  <dimension ref="A3:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="G3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -752,7 +771,7 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
@@ -782,7 +801,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
@@ -805,34 +824,60 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="F10" t="s">
-        <v>86</v>
+      <c r="F10" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="2" t="s">
         <v>87</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -848,8 +893,15 @@
         <v>4</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -864,205 +916,244 @@
       <c r="D15" t="s">
         <v>8</v>
       </c>
+      <c r="F15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>92</v>
+        <v>86</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
+      <c r="G19" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
+      <c r="B20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="F20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B27" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B32" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
@@ -1071,282 +1162,288 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
       </c>
       <c r="D37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B41" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B46" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" t="s">
-        <v>47</v>
+      <c r="B51" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" t="s">
-        <v>10</v>
+      <c r="A52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
       </c>
       <c r="C53" t="s">
         <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>50</v>
-      </c>
-      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
         <v>23</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>7</v>
       </c>
-      <c r="D54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B56" s="3" t="s">
-        <v>51</v>
+      <c r="D55" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
+      <c r="B57" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>41</v>
-      </c>
-      <c r="B58" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" t="s">
         <v>23</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C63" t="s">
         <v>7</v>
       </c>
-      <c r="D60" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B62" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>4</v>
+      <c r="D63" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
@@ -1357,10 +1454,13 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>82</v>
+      </c>
+      <c r="B65" t="s">
+        <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
@@ -1368,108 +1468,96 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B69" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>56</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>50</v>
+      </c>
+      <c r="B72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>57</v>
+      </c>
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>54</v>
-      </c>
-      <c r="C67" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>28</v>
-      </c>
-      <c r="B68" t="s">
-        <v>23</v>
-      </c>
-      <c r="C68" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>79</v>
-      </c>
-      <c r="B69" t="s">
-        <v>23</v>
-      </c>
-      <c r="C69" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>84</v>
-      </c>
-      <c r="B70" t="s">
-        <v>23</v>
-      </c>
-      <c r="C70" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B72" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>56</v>
-      </c>
-      <c r="B74" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="C74" t="s">
         <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="B75" t="s">
         <v>23</v>
@@ -1478,189 +1566,153 @@
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>57</v>
+        <v>28</v>
+      </c>
+      <c r="B76" t="s">
+        <v>23</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>58</v>
+        <v>82</v>
+      </c>
+      <c r="B77" t="s">
+        <v>23</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A79" s="2"/>
+      <c r="B79" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B78" t="s">
-        <v>23</v>
-      </c>
-      <c r="C78" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>28</v>
-      </c>
-      <c r="B79" t="s">
-        <v>23</v>
-      </c>
-      <c r="C79" t="s">
-        <v>7</v>
-      </c>
-      <c r="D79" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>84</v>
-      </c>
-      <c r="B80" t="s">
-        <v>23</v>
-      </c>
-      <c r="C80" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="2"/>
-      <c r="B82" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="2" t="s">
+      <c r="A83" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" t="s">
         <v>80</v>
       </c>
-      <c r="B84" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C86" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" t="s">
-        <v>82</v>
-      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
+      <c r="A94" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
+      <c r="A95" t="s">
+        <v>64</v>
+      </c>
+      <c r="B95" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>65</v>
+      </c>
+      <c r="B96" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>63</v>
+      <c r="A97" t="s">
+        <v>66</v>
+      </c>
+      <c r="B97" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B98" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B99" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B100" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>67</v>
-      </c>
-      <c r="B101" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>70</v>
-      </c>
-      <c r="B102" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>73</v>
-      </c>
-      <c r="B103" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
         <v>75</v>
       </c>
     </row>
